--- a/CumulativeTestsByTypeByCounty/2021-08-31.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-08-31.xlsx
@@ -5,17 +5,17 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-COMMON\COVID Data Book\Daily updates\20210830\2. 1130AM\2b. Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-COMMON\COVID Data Book\Daily updates\20210831\2. 1130AM\2b. Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D41952-2F76-438E-81D4-E93332E11BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299DB216-AAEA-421A-9979-299440B93FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Counties" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -826,7 +826,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -837,13 +837,6 @@
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -914,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -929,9 +922,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C260" sqref="C260"/>
+    <sheetView tabSelected="1" topLeftCell="A237" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J248" sqref="J248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1100,16 +1090,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>66321</v>
+        <v>66456</v>
       </c>
       <c r="C2" s="4">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="D2" s="4">
-        <v>16694</v>
+        <v>16951</v>
       </c>
       <c r="E2" s="4">
-        <v>84712</v>
+        <v>85107</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1117,16 +1107,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>4921</v>
+        <v>4937</v>
       </c>
       <c r="C3" s="4">
         <v>264</v>
       </c>
       <c r="D3" s="4">
-        <v>3936</v>
+        <v>3939</v>
       </c>
       <c r="E3" s="4">
-        <v>9121</v>
+        <v>9140</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1134,16 +1124,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>68562</v>
+        <v>69011</v>
       </c>
       <c r="C4" s="4">
-        <v>3564</v>
+        <v>3571</v>
       </c>
       <c r="D4" s="4">
-        <v>45098</v>
+        <v>45693</v>
       </c>
       <c r="E4" s="4">
-        <v>117224</v>
+        <v>118275</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1151,16 +1141,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>12146</v>
+        <v>12264</v>
       </c>
       <c r="C5" s="4">
-        <v>2531</v>
+        <v>2536</v>
       </c>
       <c r="D5" s="4">
-        <v>9163</v>
+        <v>9227</v>
       </c>
       <c r="E5" s="4">
-        <v>23840</v>
+        <v>24027</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1168,16 +1158,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>3391</v>
+        <v>3419</v>
       </c>
       <c r="C6" s="4">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D6" s="4">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E6" s="4">
-        <v>4789</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1188,13 +1178,13 @@
         <v>810</v>
       </c>
       <c r="C7" s="4">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D7" s="4">
         <v>882</v>
       </c>
       <c r="E7" s="4">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1202,16 +1192,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>76875</v>
+        <v>77167</v>
       </c>
       <c r="C8" s="4">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="D8" s="4">
-        <v>9252</v>
+        <v>9295</v>
       </c>
       <c r="E8" s="4">
-        <v>87423</v>
+        <v>87762</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1219,16 +1209,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>22644</v>
+        <v>22772</v>
       </c>
       <c r="C9" s="4">
         <v>1721</v>
       </c>
       <c r="D9" s="4">
-        <v>3072</v>
+        <v>3129</v>
       </c>
       <c r="E9" s="4">
-        <v>27437</v>
+        <v>27622</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1236,16 +1226,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2170</v>
+        <v>2175</v>
       </c>
       <c r="C10" s="4">
         <v>75</v>
       </c>
       <c r="D10" s="4">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="E10" s="4">
-        <v>3080</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1253,16 +1243,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>10893</v>
+        <v>10936</v>
       </c>
       <c r="C11" s="4">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D11" s="4">
-        <v>5691</v>
+        <v>5725</v>
       </c>
       <c r="E11" s="4">
-        <v>17176</v>
+        <v>17255</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1270,16 +1260,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>72487</v>
+        <v>72882</v>
       </c>
       <c r="C12" s="4">
-        <v>1487</v>
+        <v>1494</v>
       </c>
       <c r="D12" s="4">
-        <v>27735</v>
+        <v>27992</v>
       </c>
       <c r="E12" s="4">
-        <v>101709</v>
+        <v>102368</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1287,16 +1277,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="C13" s="4">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D13" s="4">
-        <v>2127</v>
+        <v>2145</v>
       </c>
       <c r="E13" s="4">
-        <v>4173</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1304,16 +1294,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>44396</v>
+        <v>44537</v>
       </c>
       <c r="C14" s="4">
-        <v>6831</v>
+        <v>6865</v>
       </c>
       <c r="D14" s="4">
-        <v>14274</v>
+        <v>14355</v>
       </c>
       <c r="E14" s="4">
-        <v>65501</v>
+        <v>65757</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1321,16 +1311,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>319270</v>
+        <v>320736</v>
       </c>
       <c r="C15" s="4">
-        <v>14096</v>
+        <v>14106</v>
       </c>
       <c r="D15" s="4">
-        <v>41678</v>
+        <v>41894</v>
       </c>
       <c r="E15" s="4">
-        <v>375044</v>
+        <v>376736</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1338,16 +1328,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>2929053</v>
+        <v>2959957</v>
       </c>
       <c r="C16" s="4">
-        <v>61148</v>
+        <v>61264</v>
       </c>
       <c r="D16" s="4">
-        <v>381507</v>
+        <v>385451</v>
       </c>
       <c r="E16" s="4">
-        <v>3371708</v>
+        <v>3406672</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1355,16 +1345,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>7409</v>
+        <v>7446</v>
       </c>
       <c r="C17" s="4">
         <v>321</v>
       </c>
       <c r="D17" s="4">
-        <v>1426</v>
+        <v>1474</v>
       </c>
       <c r="E17" s="4">
-        <v>9156</v>
+        <v>9241</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1389,16 +1379,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>10345</v>
+        <v>10376</v>
       </c>
       <c r="C19" s="4">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D19" s="4">
-        <v>6109</v>
+        <v>6131</v>
       </c>
       <c r="E19" s="4">
-        <v>16948</v>
+        <v>17003</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1406,16 +1396,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>72738</v>
+        <v>73302</v>
       </c>
       <c r="C20" s="4">
-        <v>10179</v>
+        <v>10191</v>
       </c>
       <c r="D20" s="4">
-        <v>21965</v>
+        <v>22178</v>
       </c>
       <c r="E20" s="4">
-        <v>104882</v>
+        <v>105671</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1423,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>432447</v>
+        <v>435270</v>
       </c>
       <c r="C21" s="4">
-        <v>22621</v>
+        <v>22676</v>
       </c>
       <c r="D21" s="4">
-        <v>69869</v>
+        <v>70335</v>
       </c>
       <c r="E21" s="4">
-        <v>524937</v>
+        <v>528281</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1440,16 +1430,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>315490</v>
+        <v>320661</v>
       </c>
       <c r="C22" s="4">
-        <v>10040</v>
+        <v>10120</v>
       </c>
       <c r="D22" s="4">
-        <v>31992</v>
+        <v>32287</v>
       </c>
       <c r="E22" s="4">
-        <v>357522</v>
+        <v>363068</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1457,16 +1447,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8924</v>
+        <v>8933</v>
       </c>
       <c r="C23" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D23" s="4">
-        <v>1855</v>
+        <v>1861</v>
       </c>
       <c r="E23" s="4">
-        <v>10919</v>
+        <v>10935</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1474,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="C24" s="4">
         <v>131</v>
@@ -1483,7 +1473,7 @@
         <v>131</v>
       </c>
       <c r="E24" s="4">
-        <v>1100</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1491,16 +1481,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>21626</v>
+        <v>21643</v>
       </c>
       <c r="C25" s="4">
         <v>1678</v>
       </c>
       <c r="D25" s="4">
-        <v>4552</v>
+        <v>4602</v>
       </c>
       <c r="E25" s="4">
-        <v>27856</v>
+        <v>27923</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1508,16 +1498,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>20354</v>
+        <v>20831</v>
       </c>
       <c r="C26" s="4">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="D26" s="4">
-        <v>29577</v>
+        <v>30125</v>
       </c>
       <c r="E26" s="4">
-        <v>50909</v>
+        <v>51946</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1525,16 +1515,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>19167</v>
+        <v>19334</v>
       </c>
       <c r="C27" s="4">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D27" s="4">
-        <v>4193</v>
+        <v>4266</v>
       </c>
       <c r="E27" s="4">
-        <v>24035</v>
+        <v>24276</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1542,16 +1532,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>45629</v>
+        <v>45944</v>
       </c>
       <c r="C28" s="4">
-        <v>1387</v>
+        <v>1394</v>
       </c>
       <c r="D28" s="4">
-        <v>6951</v>
+        <v>7080</v>
       </c>
       <c r="E28" s="4">
-        <v>53967</v>
+        <v>54418</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1559,16 +1549,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>45271</v>
+        <v>45505</v>
       </c>
       <c r="C29" s="4">
-        <v>1801</v>
+        <v>1807</v>
       </c>
       <c r="D29" s="4">
-        <v>9564</v>
+        <v>9781</v>
       </c>
       <c r="E29" s="4">
-        <v>56636</v>
+        <v>57093</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1576,16 +1566,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>16845</v>
+        <v>16883</v>
       </c>
       <c r="C30" s="4">
-        <v>1564</v>
+        <v>1582</v>
       </c>
       <c r="D30" s="4">
-        <v>9220</v>
+        <v>9532</v>
       </c>
       <c r="E30" s="4">
-        <v>27629</v>
+        <v>27997</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1593,16 +1583,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>5934</v>
+        <v>5955</v>
       </c>
       <c r="C31" s="4">
         <v>268</v>
       </c>
       <c r="D31" s="4">
-        <v>7322</v>
+        <v>7398</v>
       </c>
       <c r="E31" s="4">
-        <v>13524</v>
+        <v>13621</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1610,16 +1600,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>344506</v>
+        <v>345953</v>
       </c>
       <c r="C32" s="4">
-        <v>9328</v>
+        <v>9353</v>
       </c>
       <c r="D32" s="4">
-        <v>103887</v>
+        <v>104477</v>
       </c>
       <c r="E32" s="4">
-        <v>457721</v>
+        <v>459783</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1627,16 +1617,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>7282</v>
+        <v>7342</v>
       </c>
       <c r="C33" s="4">
         <v>430</v>
       </c>
       <c r="D33" s="4">
-        <v>2780</v>
+        <v>2798</v>
       </c>
       <c r="E33" s="4">
-        <v>10492</v>
+        <v>10570</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1644,16 +1634,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>2137</v>
+        <v>2148</v>
       </c>
       <c r="C34" s="4">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D34" s="4">
         <v>868</v>
       </c>
       <c r="E34" s="4">
-        <v>3978</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1661,16 +1651,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>15006</v>
+        <v>15133</v>
       </c>
       <c r="C35" s="4">
-        <v>3249</v>
+        <v>3252</v>
       </c>
       <c r="D35" s="4">
-        <v>7101</v>
+        <v>7143</v>
       </c>
       <c r="E35" s="4">
-        <v>25356</v>
+        <v>25528</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1678,16 +1668,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>5131</v>
+        <v>5170</v>
       </c>
       <c r="C36" s="4">
         <v>324</v>
       </c>
       <c r="D36" s="4">
-        <v>2449</v>
+        <v>2458</v>
       </c>
       <c r="E36" s="4">
-        <v>7904</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1695,16 +1685,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>11108</v>
+        <v>11234</v>
       </c>
       <c r="C37" s="4">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D37" s="4">
-        <v>2278</v>
+        <v>2304</v>
       </c>
       <c r="E37" s="4">
-        <v>14221</v>
+        <v>14374</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1712,16 +1702,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>30726</v>
+        <v>30840</v>
       </c>
       <c r="C38" s="4">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="D38" s="4">
-        <v>16637</v>
+        <v>16980</v>
       </c>
       <c r="E38" s="4">
-        <v>48367</v>
+        <v>48831</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1729,7 +1719,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>4024</v>
+        <v>4077</v>
       </c>
       <c r="C39" s="4">
         <v>401</v>
@@ -1738,7 +1728,7 @@
         <v>5309</v>
       </c>
       <c r="E39" s="4">
-        <v>9734</v>
+        <v>9787</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1746,16 +1736,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>5021</v>
+        <v>5053</v>
       </c>
       <c r="C40" s="4">
         <v>508</v>
       </c>
       <c r="D40" s="4">
-        <v>2892</v>
+        <v>2906</v>
       </c>
       <c r="E40" s="4">
-        <v>8421</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1763,7 +1753,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>1070</v>
+        <v>1080</v>
       </c>
       <c r="C41" s="4">
         <v>23</v>
@@ -1772,7 +1762,7 @@
         <v>345</v>
       </c>
       <c r="E41" s="4">
-        <v>1438</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1780,16 +1770,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>2374</v>
+        <v>2387</v>
       </c>
       <c r="C42" s="4">
         <v>37</v>
       </c>
       <c r="D42" s="4">
-        <v>2234</v>
+        <v>2249</v>
       </c>
       <c r="E42" s="4">
-        <v>4645</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1797,16 +1787,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>3668</v>
+        <v>3675</v>
       </c>
       <c r="C43" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="4">
-        <v>3600</v>
+        <v>3630</v>
       </c>
       <c r="E43" s="4">
-        <v>7396</v>
+        <v>7435</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1814,16 +1804,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1186290</v>
+        <v>1194712</v>
       </c>
       <c r="C44" s="4">
-        <v>93493</v>
+        <v>93835</v>
       </c>
       <c r="D44" s="4">
-        <v>180085</v>
+        <v>181530</v>
       </c>
       <c r="E44" s="4">
-        <v>1459868</v>
+        <v>1470077</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1831,16 +1821,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="C45" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D45" s="4">
         <v>1926</v>
       </c>
       <c r="E45" s="4">
-        <v>3402</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1848,16 +1838,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>14705</v>
+        <v>14754</v>
       </c>
       <c r="C46" s="4">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D46" s="4">
-        <v>6631</v>
+        <v>6718</v>
       </c>
       <c r="E46" s="4">
-        <v>22448</v>
+        <v>22585</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1865,16 +1855,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>138509</v>
+        <v>139433</v>
       </c>
       <c r="C47" s="4">
-        <v>9101</v>
+        <v>9114</v>
       </c>
       <c r="D47" s="4">
-        <v>33750</v>
+        <v>33958</v>
       </c>
       <c r="E47" s="4">
-        <v>181360</v>
+        <v>182505</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1882,16 +1872,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>7979</v>
+        <v>8017</v>
       </c>
       <c r="C48" s="4">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D48" s="4">
-        <v>3681</v>
+        <v>3716</v>
       </c>
       <c r="E48" s="4">
-        <v>11988</v>
+        <v>12063</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1899,16 +1889,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="C49" s="4">
         <v>26</v>
       </c>
       <c r="D49" s="4">
-        <v>2558</v>
+        <v>2569</v>
       </c>
       <c r="E49" s="4">
-        <v>4423</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1916,16 +1906,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>27239</v>
+        <v>27325</v>
       </c>
       <c r="C50" s="4">
-        <v>1631</v>
+        <v>1638</v>
       </c>
       <c r="D50" s="4">
-        <v>7909</v>
+        <v>7996</v>
       </c>
       <c r="E50" s="4">
-        <v>36779</v>
+        <v>36959</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1933,16 +1923,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>108778</v>
+        <v>109228</v>
       </c>
       <c r="C51" s="4">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="D51" s="4">
-        <v>11940</v>
+        <v>12018</v>
       </c>
       <c r="E51" s="4">
-        <v>123010</v>
+        <v>123539</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1950,7 +1940,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C52" s="4">
         <v>46</v>
@@ -1959,7 +1949,7 @@
         <v>885</v>
       </c>
       <c r="E52" s="4">
-        <v>1788</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1967,16 +1957,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4635</v>
+        <v>4637</v>
       </c>
       <c r="C53" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D53" s="4">
-        <v>2326</v>
+        <v>2367</v>
       </c>
       <c r="E53" s="4">
-        <v>7037</v>
+        <v>7081</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1984,16 +1974,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C54" s="4">
         <v>22</v>
       </c>
       <c r="D54" s="4">
-        <v>3262</v>
+        <v>3273</v>
       </c>
       <c r="E54" s="4">
-        <v>4357</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2001,16 +1991,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2975</v>
+        <v>2983</v>
       </c>
       <c r="C55" s="4">
         <v>43</v>
       </c>
       <c r="D55" s="4">
-        <v>2268</v>
+        <v>2295</v>
       </c>
       <c r="E55" s="4">
-        <v>5286</v>
+        <v>5321</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2018,7 +2008,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="C56" s="4">
         <v>34</v>
@@ -2027,7 +2017,7 @@
         <v>205</v>
       </c>
       <c r="E56" s="4">
-        <v>2587</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2035,16 +2025,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>2194</v>
+        <v>2198</v>
       </c>
       <c r="C57" s="4">
         <v>435</v>
       </c>
       <c r="D57" s="4">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="E57" s="4">
-        <v>4895</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2052,16 +2042,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>2951218</v>
+        <v>2968335</v>
       </c>
       <c r="C58" s="4">
-        <v>146341</v>
+        <v>146653</v>
       </c>
       <c r="D58" s="4">
-        <v>367871</v>
+        <v>370671</v>
       </c>
       <c r="E58" s="4">
-        <v>3465430</v>
+        <v>3485659</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2069,16 +2059,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>9508</v>
+        <v>9531</v>
       </c>
       <c r="C59" s="4">
         <v>532</v>
       </c>
       <c r="D59" s="4">
-        <v>3710</v>
+        <v>3748</v>
       </c>
       <c r="E59" s="4">
-        <v>13750</v>
+        <v>13811</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2086,16 +2076,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>11868</v>
+        <v>11899</v>
       </c>
       <c r="C60" s="4">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D60" s="4">
-        <v>4684</v>
+        <v>4774</v>
       </c>
       <c r="E60" s="4">
-        <v>16927</v>
+        <v>17049</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2103,16 +2093,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>5821</v>
+        <v>5835</v>
       </c>
       <c r="C61" s="4">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D61" s="4">
-        <v>3662</v>
+        <v>3671</v>
       </c>
       <c r="E61" s="4">
-        <v>10557</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2120,16 +2110,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>2314</v>
+        <v>2356</v>
       </c>
       <c r="C62" s="4">
         <v>246</v>
       </c>
       <c r="D62" s="4">
-        <v>1744</v>
+        <v>1758</v>
       </c>
       <c r="E62" s="4">
-        <v>4304</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2137,16 +2127,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>725221</v>
+        <v>729082</v>
       </c>
       <c r="C63" s="4">
-        <v>69782</v>
+        <v>70078</v>
       </c>
       <c r="D63" s="4">
-        <v>149769</v>
+        <v>150621</v>
       </c>
       <c r="E63" s="4">
-        <v>944772</v>
+        <v>949781</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2154,16 +2144,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C64" s="4">
         <v>15</v>
       </c>
       <c r="D64" s="4">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E64" s="4">
-        <v>1110</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2171,16 +2161,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>23493</v>
+        <v>23541</v>
       </c>
       <c r="C65" s="4">
         <v>118</v>
       </c>
       <c r="D65" s="4">
-        <v>36202</v>
+        <v>36213</v>
       </c>
       <c r="E65" s="4">
-        <v>59813</v>
+        <v>59872</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2188,16 +2178,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="C66" s="4">
         <v>440</v>
       </c>
       <c r="D66" s="4">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="E66" s="4">
-        <v>2994</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2205,16 +2195,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>20791</v>
+        <v>20861</v>
       </c>
       <c r="C67" s="4">
-        <v>3069</v>
+        <v>3071</v>
       </c>
       <c r="D67" s="4">
-        <v>6870</v>
+        <v>6940</v>
       </c>
       <c r="E67" s="4">
-        <v>30730</v>
+        <v>30872</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2222,16 +2212,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>5795</v>
+        <v>5832</v>
       </c>
       <c r="C68" s="4">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D68" s="4">
-        <v>5492</v>
+        <v>5573</v>
       </c>
       <c r="E68" s="4">
-        <v>11734</v>
+        <v>11854</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2239,16 +2229,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>69763</v>
+        <v>70176</v>
       </c>
       <c r="C69" s="4">
-        <v>5289</v>
+        <v>5311</v>
       </c>
       <c r="D69" s="4">
-        <v>34890</v>
+        <v>35151</v>
       </c>
       <c r="E69" s="4">
-        <v>109942</v>
+        <v>110638</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2256,16 +2246,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1280</v>
+        <v>1285</v>
       </c>
       <c r="C70" s="4">
         <v>36</v>
       </c>
       <c r="D70" s="4">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="E70" s="4">
-        <v>1976</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2273,16 +2263,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1049179</v>
+        <v>1051915</v>
       </c>
       <c r="C71" s="4">
-        <v>19933</v>
+        <v>19941</v>
       </c>
       <c r="D71" s="4">
-        <v>471328</v>
+        <v>472134</v>
       </c>
       <c r="E71" s="4">
-        <v>1540440</v>
+        <v>1543990</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2290,16 +2280,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>202268</v>
+        <v>203585</v>
       </c>
       <c r="C72" s="4">
-        <v>7958</v>
+        <v>7994</v>
       </c>
       <c r="D72" s="4">
-        <v>30423</v>
+        <v>30746</v>
       </c>
       <c r="E72" s="4">
-        <v>240649</v>
+        <v>242325</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2307,16 +2297,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>24169</v>
+        <v>24320</v>
       </c>
       <c r="C73" s="4">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="D73" s="4">
-        <v>10962</v>
+        <v>11006</v>
       </c>
       <c r="E73" s="4">
-        <v>36416</v>
+        <v>36617</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2324,16 +2314,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>15006</v>
+        <v>15110</v>
       </c>
       <c r="C74" s="4">
         <v>441</v>
       </c>
       <c r="D74" s="4">
-        <v>4980</v>
+        <v>5054</v>
       </c>
       <c r="E74" s="4">
-        <v>20427</v>
+        <v>20605</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2341,16 +2331,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>34566</v>
+        <v>34658</v>
       </c>
       <c r="C75" s="4">
         <v>936</v>
       </c>
       <c r="D75" s="4">
-        <v>7229</v>
+        <v>7285</v>
       </c>
       <c r="E75" s="4">
-        <v>42731</v>
+        <v>42879</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2358,16 +2348,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>18724</v>
+        <v>18781</v>
       </c>
       <c r="C76" s="4">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D76" s="4">
-        <v>4531</v>
+        <v>4574</v>
       </c>
       <c r="E76" s="4">
-        <v>24046</v>
+        <v>24149</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2375,16 +2365,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="C77" s="4">
         <v>35</v>
       </c>
       <c r="D77" s="4">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E77" s="4">
-        <v>2023</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2392,7 +2382,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>3250</v>
+        <v>3270</v>
       </c>
       <c r="C78" s="4">
         <v>135</v>
@@ -2401,7 +2391,7 @@
         <v>554</v>
       </c>
       <c r="E78" s="4">
-        <v>3939</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2409,16 +2399,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="C79" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D79" s="4">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E79" s="4">
-        <v>1480</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2426,16 +2416,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>864501</v>
+        <v>871363</v>
       </c>
       <c r="C80" s="4">
-        <v>44454</v>
+        <v>44537</v>
       </c>
       <c r="D80" s="4">
-        <v>96067</v>
+        <v>97159</v>
       </c>
       <c r="E80" s="4">
-        <v>1005022</v>
+        <v>1013059</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2443,16 +2433,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>5398</v>
+        <v>5431</v>
       </c>
       <c r="C81" s="4">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D81" s="4">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="E81" s="4">
-        <v>7107</v>
+        <v>7147</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2460,16 +2450,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>18306</v>
+        <v>18365</v>
       </c>
       <c r="C82" s="4">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D82" s="4">
-        <v>10755</v>
+        <v>10904</v>
       </c>
       <c r="E82" s="4">
-        <v>29795</v>
+        <v>30005</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2477,16 +2467,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>24091</v>
+        <v>24127</v>
       </c>
       <c r="C83" s="4">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D83" s="4">
-        <v>4680</v>
+        <v>4698</v>
       </c>
       <c r="E83" s="4">
-        <v>29315</v>
+        <v>29372</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2494,16 +2484,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>4088</v>
+        <v>4118</v>
       </c>
       <c r="C84" s="4">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D84" s="4">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="E84" s="4">
-        <v>5897</v>
+        <v>5931</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2511,16 +2501,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>474080</v>
+        <v>476884</v>
       </c>
       <c r="C85" s="4">
-        <v>22812</v>
+        <v>22858</v>
       </c>
       <c r="D85" s="4">
-        <v>55787</v>
+        <v>56170</v>
       </c>
       <c r="E85" s="4">
-        <v>552679</v>
+        <v>555912</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2528,16 +2518,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>3020</v>
+        <v>3039</v>
       </c>
       <c r="C86" s="4">
         <v>56</v>
       </c>
       <c r="D86" s="4">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="E86" s="4">
-        <v>4673</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2545,16 +2535,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>18099</v>
+        <v>18147</v>
       </c>
       <c r="C87" s="4">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="D87" s="4">
-        <v>6641</v>
+        <v>6679</v>
       </c>
       <c r="E87" s="4">
-        <v>25379</v>
+        <v>25471</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2562,16 +2552,16 @@
         <v>91</v>
       </c>
       <c r="B88" s="4">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C88" s="4">
         <v>39</v>
       </c>
       <c r="D88" s="4">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E88" s="4">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2579,16 +2569,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>3621</v>
+        <v>3644</v>
       </c>
       <c r="C89" s="4">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D89" s="4">
-        <v>2781</v>
+        <v>2793</v>
       </c>
       <c r="E89" s="4">
-        <v>6611</v>
+        <v>6649</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2596,16 +2586,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>14705</v>
+        <v>14765</v>
       </c>
       <c r="C90" s="4">
         <v>421</v>
       </c>
       <c r="D90" s="4">
-        <v>7548</v>
+        <v>7562</v>
       </c>
       <c r="E90" s="4">
-        <v>22674</v>
+        <v>22748</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2613,16 +2603,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>9436</v>
+        <v>9535</v>
       </c>
       <c r="C91" s="4">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D91" s="4">
-        <v>4651</v>
+        <v>4678</v>
       </c>
       <c r="E91" s="4">
-        <v>15183</v>
+        <v>15311</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2630,16 +2620,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>126728</v>
+        <v>127185</v>
       </c>
       <c r="C92" s="4">
-        <v>4721</v>
+        <v>4753</v>
       </c>
       <c r="D92" s="4">
-        <v>24705</v>
+        <v>24856</v>
       </c>
       <c r="E92" s="4">
-        <v>156154</v>
+        <v>156794</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2647,16 +2637,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>62465</v>
+        <v>62894</v>
       </c>
       <c r="C93" s="4">
-        <v>11127</v>
+        <v>11141</v>
       </c>
       <c r="D93" s="4">
-        <v>27369</v>
+        <v>27906</v>
       </c>
       <c r="E93" s="4">
-        <v>100961</v>
+        <v>101941</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2664,16 +2654,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>45035</v>
+        <v>45517</v>
       </c>
       <c r="C94" s="4">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="D94" s="4">
-        <v>5300</v>
+        <v>5368</v>
       </c>
       <c r="E94" s="4">
-        <v>51592</v>
+        <v>52144</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2681,16 +2671,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>113108</v>
+        <v>113772</v>
       </c>
       <c r="C95" s="4">
-        <v>4636</v>
+        <v>4650</v>
       </c>
       <c r="D95" s="4">
-        <v>28480</v>
+        <v>28661</v>
       </c>
       <c r="E95" s="4">
-        <v>146224</v>
+        <v>147083</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2698,16 +2688,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>21250</v>
+        <v>21344</v>
       </c>
       <c r="C96" s="4">
         <v>381</v>
       </c>
       <c r="D96" s="4">
-        <v>4530</v>
+        <v>4549</v>
       </c>
       <c r="E96" s="4">
-        <v>26161</v>
+        <v>26274</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2715,16 +2705,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="C97" s="4">
         <v>64</v>
       </c>
       <c r="D97" s="4">
-        <v>2494</v>
+        <v>2497</v>
       </c>
       <c r="E97" s="4">
-        <v>3913</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2732,16 +2722,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>7424</v>
+        <v>7468</v>
       </c>
       <c r="C98" s="4">
         <v>362</v>
       </c>
       <c r="D98" s="4">
-        <v>2374</v>
+        <v>2467</v>
       </c>
       <c r="E98" s="4">
-        <v>10160</v>
+        <v>10297</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2749,16 +2739,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1513</v>
+        <v>1531</v>
       </c>
       <c r="C99" s="4">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D99" s="4">
-        <v>2357</v>
+        <v>2395</v>
       </c>
       <c r="E99" s="4">
-        <v>4586</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2766,16 +2756,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1841</v>
+        <v>1858</v>
       </c>
       <c r="C100" s="4">
         <v>274</v>
       </c>
       <c r="D100" s="4">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="E100" s="4">
-        <v>3423</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2783,16 +2773,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>31058</v>
+        <v>31302</v>
       </c>
       <c r="C101" s="4">
-        <v>3687</v>
+        <v>3704</v>
       </c>
       <c r="D101" s="4">
-        <v>16232</v>
+        <v>16344</v>
       </c>
       <c r="E101" s="4">
-        <v>50977</v>
+        <v>51350</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2800,16 +2790,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>5298820</v>
+        <v>5331847</v>
       </c>
       <c r="C102" s="4">
-        <v>247038</v>
+        <v>247641</v>
       </c>
       <c r="D102" s="4">
-        <v>701469</v>
+        <v>706330</v>
       </c>
       <c r="E102" s="4">
-        <v>6247327</v>
+        <v>6285818</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2817,16 +2807,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>71967</v>
+        <v>72248</v>
       </c>
       <c r="C103" s="4">
-        <v>8314</v>
+        <v>8321</v>
       </c>
       <c r="D103" s="4">
-        <v>17133</v>
+        <v>17489</v>
       </c>
       <c r="E103" s="4">
-        <v>97414</v>
+        <v>98058</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2851,16 +2841,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C105" s="4">
         <v>36</v>
       </c>
       <c r="D105" s="4">
-        <v>1932</v>
+        <v>1941</v>
       </c>
       <c r="E105" s="4">
-        <v>3519</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2868,16 +2858,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>323418</v>
+        <v>325987</v>
       </c>
       <c r="C106" s="4">
-        <v>12277</v>
+        <v>12308</v>
       </c>
       <c r="D106" s="4">
-        <v>34457</v>
+        <v>34760</v>
       </c>
       <c r="E106" s="4">
-        <v>370152</v>
+        <v>373055</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2885,16 +2875,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="C107" s="4">
         <v>449</v>
       </c>
       <c r="D107" s="4">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E107" s="4">
-        <v>1741</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2902,16 +2892,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>35536</v>
+        <v>35753</v>
       </c>
       <c r="C108" s="4">
-        <v>2557</v>
+        <v>2573</v>
       </c>
       <c r="D108" s="4">
-        <v>16839</v>
+        <v>17079</v>
       </c>
       <c r="E108" s="4">
-        <v>54932</v>
+        <v>55405</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2919,16 +2909,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>618112</v>
+        <v>621349</v>
       </c>
       <c r="C109" s="4">
-        <v>17928</v>
+        <v>17980</v>
       </c>
       <c r="D109" s="4">
-        <v>286144</v>
+        <v>287352</v>
       </c>
       <c r="E109" s="4">
-        <v>922184</v>
+        <v>926681</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2936,16 +2926,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>36015</v>
+        <v>36104</v>
       </c>
       <c r="C110" s="4">
         <v>1071</v>
       </c>
       <c r="D110" s="4">
-        <v>10490</v>
+        <v>10558</v>
       </c>
       <c r="E110" s="4">
-        <v>47576</v>
+        <v>47733</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2953,16 +2943,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>10884</v>
+        <v>10955</v>
       </c>
       <c r="C111" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D111" s="4">
-        <v>4156</v>
+        <v>4162</v>
       </c>
       <c r="E111" s="4">
-        <v>15189</v>
+        <v>15267</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2970,16 +2960,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>42822</v>
+        <v>43071</v>
       </c>
       <c r="C112" s="4">
-        <v>2697</v>
+        <v>2705</v>
       </c>
       <c r="D112" s="4">
-        <v>31574</v>
+        <v>31822</v>
       </c>
       <c r="E112" s="4">
-        <v>77093</v>
+        <v>77598</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2987,16 +2977,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>20866</v>
+        <v>20980</v>
       </c>
       <c r="C113" s="4">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="D113" s="4">
-        <v>7687</v>
+        <v>7775</v>
       </c>
       <c r="E113" s="4">
-        <v>30533</v>
+        <v>30744</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3004,16 +2994,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>18328</v>
+        <v>18400</v>
       </c>
       <c r="C114" s="4">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D114" s="4">
-        <v>6092</v>
+        <v>6139</v>
       </c>
       <c r="E114" s="4">
-        <v>25014</v>
+        <v>25135</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3021,16 +3011,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>19385</v>
+        <v>19450</v>
       </c>
       <c r="C115" s="4">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="D115" s="4">
-        <v>7560</v>
+        <v>7663</v>
       </c>
       <c r="E115" s="4">
-        <v>27604</v>
+        <v>27778</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3038,16 +3028,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2871</v>
+        <v>2877</v>
       </c>
       <c r="C116" s="4">
         <v>42</v>
       </c>
       <c r="D116" s="4">
-        <v>1328</v>
+        <v>1334</v>
       </c>
       <c r="E116" s="4">
-        <v>4241</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3055,16 +3045,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>97572</v>
+        <v>98224</v>
       </c>
       <c r="C117" s="4">
-        <v>4285</v>
+        <v>4306</v>
       </c>
       <c r="D117" s="4">
-        <v>23940</v>
+        <v>24439</v>
       </c>
       <c r="E117" s="4">
-        <v>125797</v>
+        <v>126969</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3072,16 +3062,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>9791</v>
+        <v>9828</v>
       </c>
       <c r="C118" s="4">
         <v>1542</v>
       </c>
       <c r="D118" s="4">
-        <v>6360</v>
+        <v>6367</v>
       </c>
       <c r="E118" s="4">
-        <v>17693</v>
+        <v>17737</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3089,16 +3079,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C119" s="4">
         <v>20</v>
       </c>
       <c r="D119" s="4">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="E119" s="4">
-        <v>897</v>
+        <v>906</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3106,16 +3096,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>2959</v>
+        <v>2971</v>
       </c>
       <c r="C120" s="4">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D120" s="4">
-        <v>1019</v>
+        <v>1028</v>
       </c>
       <c r="E120" s="4">
-        <v>4206</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3123,16 +3113,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>8776</v>
+        <v>8816</v>
       </c>
       <c r="C121" s="4">
         <v>297</v>
       </c>
       <c r="D121" s="4">
-        <v>3577</v>
+        <v>3616</v>
       </c>
       <c r="E121" s="4">
-        <v>12650</v>
+        <v>12729</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3140,16 +3130,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>20083</v>
+        <v>20195</v>
       </c>
       <c r="C122" s="4">
-        <v>2760</v>
+        <v>2762</v>
       </c>
       <c r="D122" s="4">
-        <v>8190</v>
+        <v>8266</v>
       </c>
       <c r="E122" s="4">
-        <v>31033</v>
+        <v>31223</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3157,16 +3147,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="C123" s="4">
         <v>54</v>
       </c>
       <c r="D123" s="4">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E123" s="4">
-        <v>2209</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3174,16 +3164,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>195736</v>
+        <v>196549</v>
       </c>
       <c r="C124" s="4">
-        <v>14039</v>
+        <v>14106</v>
       </c>
       <c r="D124" s="4">
-        <v>65115</v>
+        <v>65723</v>
       </c>
       <c r="E124" s="4">
-        <v>274890</v>
+        <v>276378</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3191,16 +3181,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>14625</v>
+        <v>14635</v>
       </c>
       <c r="C125" s="4">
         <v>672</v>
       </c>
       <c r="D125" s="4">
-        <v>6186</v>
+        <v>6278</v>
       </c>
       <c r="E125" s="4">
-        <v>21483</v>
+        <v>21585</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3208,16 +3198,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>58492</v>
+        <v>58814</v>
       </c>
       <c r="C126" s="4">
-        <v>9790</v>
+        <v>9807</v>
       </c>
       <c r="D126" s="4">
-        <v>24515</v>
+        <v>24650</v>
       </c>
       <c r="E126" s="4">
-        <v>92797</v>
+        <v>93271</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3225,16 +3215,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>146064</v>
+        <v>146802</v>
       </c>
       <c r="C127" s="4">
-        <v>7638</v>
+        <v>7666</v>
       </c>
       <c r="D127" s="4">
-        <v>28185</v>
+        <v>28440</v>
       </c>
       <c r="E127" s="4">
-        <v>181887</v>
+        <v>182908</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3242,16 +3232,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>8370</v>
+        <v>8400</v>
       </c>
       <c r="C128" s="4">
         <v>214</v>
       </c>
       <c r="D128" s="4">
-        <v>4726</v>
+        <v>4782</v>
       </c>
       <c r="E128" s="4">
-        <v>13310</v>
+        <v>13396</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3259,16 +3249,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>18616</v>
+        <v>18655</v>
       </c>
       <c r="C129" s="4">
         <v>509</v>
       </c>
       <c r="D129" s="4">
-        <v>8354</v>
+        <v>8541</v>
       </c>
       <c r="E129" s="4">
-        <v>27479</v>
+        <v>27705</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3276,16 +3266,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>131835</v>
+        <v>132756</v>
       </c>
       <c r="C130" s="4">
-        <v>5982</v>
+        <v>6002</v>
       </c>
       <c r="D130" s="4">
-        <v>31456</v>
+        <v>31840</v>
       </c>
       <c r="E130" s="4">
-        <v>169273</v>
+        <v>170598</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3293,16 +3283,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>32463</v>
+        <v>32653</v>
       </c>
       <c r="C131" s="4">
-        <v>1954</v>
+        <v>1960</v>
       </c>
       <c r="D131" s="4">
-        <v>14154</v>
+        <v>14267</v>
       </c>
       <c r="E131" s="4">
-        <v>48571</v>
+        <v>48880</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3310,7 +3300,7 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C132" s="4">
         <v>47</v>
@@ -3319,7 +3309,7 @@
         <v>98</v>
       </c>
       <c r="E132" s="4">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3330,13 +3320,13 @@
         <v>281</v>
       </c>
       <c r="C133" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D133" s="4">
         <v>556</v>
       </c>
       <c r="E133" s="4">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3344,16 +3334,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>37991</v>
+        <v>38140</v>
       </c>
       <c r="C134" s="4">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="D134" s="4">
-        <v>27077</v>
+        <v>27228</v>
       </c>
       <c r="E134" s="4">
-        <v>66166</v>
+        <v>66470</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3361,16 +3351,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1986</v>
+        <v>2001</v>
       </c>
       <c r="C135" s="4">
         <v>43</v>
       </c>
       <c r="D135" s="4">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="E135" s="4">
-        <v>2777</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3395,16 +3385,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>2607</v>
+        <v>2615</v>
       </c>
       <c r="C137" s="4">
         <v>49</v>
       </c>
       <c r="D137" s="4">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="E137" s="4">
-        <v>2977</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3412,16 +3402,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>32764</v>
+        <v>32946</v>
       </c>
       <c r="C138" s="4">
-        <v>5119</v>
+        <v>5124</v>
       </c>
       <c r="D138" s="4">
-        <v>11973</v>
+        <v>12028</v>
       </c>
       <c r="E138" s="4">
-        <v>49856</v>
+        <v>50098</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3429,16 +3419,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C139" s="4">
         <v>44</v>
       </c>
       <c r="D139" s="4">
-        <v>3130</v>
+        <v>3133</v>
       </c>
       <c r="E139" s="4">
-        <v>3957</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3446,16 +3436,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>8926</v>
+        <v>8969</v>
       </c>
       <c r="C140" s="4">
         <v>308</v>
       </c>
       <c r="D140" s="4">
-        <v>921</v>
+        <v>935</v>
       </c>
       <c r="E140" s="4">
-        <v>10155</v>
+        <v>10212</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3463,16 +3453,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>25667</v>
+        <v>25749</v>
       </c>
       <c r="C141" s="4">
         <v>2585</v>
       </c>
       <c r="D141" s="4">
-        <v>10169</v>
+        <v>10367</v>
       </c>
       <c r="E141" s="4">
-        <v>38421</v>
+        <v>38701</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3480,16 +3470,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>6633</v>
+        <v>6655</v>
       </c>
       <c r="C142" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D142" s="4">
-        <v>7210</v>
+        <v>7285</v>
       </c>
       <c r="E142" s="4">
-        <v>13968</v>
+        <v>14066</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3497,16 +3487,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>21889</v>
+        <v>21930</v>
       </c>
       <c r="C143" s="4">
         <v>660</v>
       </c>
       <c r="D143" s="4">
-        <v>5637</v>
+        <v>5653</v>
       </c>
       <c r="E143" s="4">
-        <v>28186</v>
+        <v>28243</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3514,16 +3504,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>14954</v>
+        <v>15039</v>
       </c>
       <c r="C144" s="4">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="D144" s="4">
-        <v>6346</v>
+        <v>6397</v>
       </c>
       <c r="E144" s="4">
-        <v>22159</v>
+        <v>22305</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3531,16 +3521,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>10100</v>
+        <v>10144</v>
       </c>
       <c r="C145" s="4">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D145" s="4">
-        <v>4234</v>
+        <v>4271</v>
       </c>
       <c r="E145" s="4">
-        <v>14642</v>
+        <v>14724</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3548,16 +3538,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>12459</v>
+        <v>12571</v>
       </c>
       <c r="C146" s="4">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D146" s="4">
-        <v>3737</v>
+        <v>3820</v>
       </c>
       <c r="E146" s="4">
-        <v>16933</v>
+        <v>17130</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3565,16 +3555,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>70127</v>
+        <v>70627</v>
       </c>
       <c r="C147" s="4">
-        <v>4359</v>
+        <v>4361</v>
       </c>
       <c r="D147" s="4">
-        <v>14055</v>
+        <v>14203</v>
       </c>
       <c r="E147" s="4">
-        <v>88541</v>
+        <v>89191</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3582,16 +3572,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>33312</v>
+        <v>33441</v>
       </c>
       <c r="C148" s="4">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D148" s="4">
-        <v>17192</v>
+        <v>17613</v>
       </c>
       <c r="E148" s="4">
-        <v>51172</v>
+        <v>51724</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3616,16 +3606,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>7152</v>
+        <v>7178</v>
       </c>
       <c r="C150" s="4">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="D150" s="4">
-        <v>3225</v>
+        <v>3245</v>
       </c>
       <c r="E150" s="4">
-        <v>11512</v>
+        <v>11562</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3633,16 +3623,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>14690</v>
+        <v>14742</v>
       </c>
       <c r="C151" s="4">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D151" s="4">
-        <v>2626</v>
+        <v>2640</v>
       </c>
       <c r="E151" s="4">
-        <v>17704</v>
+        <v>17772</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3667,16 +3657,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>250188</v>
+        <v>251878</v>
       </c>
       <c r="C153" s="4">
-        <v>8214</v>
+        <v>8228</v>
       </c>
       <c r="D153" s="4">
-        <v>120062</v>
+        <v>120464</v>
       </c>
       <c r="E153" s="4">
-        <v>378464</v>
+        <v>380570</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3684,16 +3674,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>3371</v>
+        <v>3382</v>
       </c>
       <c r="C154" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D154" s="4">
-        <v>3269</v>
+        <v>3284</v>
       </c>
       <c r="E154" s="4">
-        <v>6768</v>
+        <v>6796</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3701,16 +3691,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>15895</v>
+        <v>15964</v>
       </c>
       <c r="C155" s="4">
         <v>354</v>
       </c>
       <c r="D155" s="4">
-        <v>3478</v>
+        <v>3499</v>
       </c>
       <c r="E155" s="4">
-        <v>19727</v>
+        <v>19817</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3718,16 +3708,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>3135</v>
+        <v>3155</v>
       </c>
       <c r="C156" s="4">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D156" s="4">
-        <v>2549</v>
+        <v>2563</v>
       </c>
       <c r="E156" s="4">
-        <v>6516</v>
+        <v>6554</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3735,16 +3725,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1493</v>
+        <v>1501</v>
       </c>
       <c r="C157" s="4">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D157" s="4">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="E157" s="4">
-        <v>2620</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3752,16 +3742,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2140</v>
+        <v>2146</v>
       </c>
       <c r="C158" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D158" s="4">
-        <v>902</v>
+        <v>934</v>
       </c>
       <c r="E158" s="4">
-        <v>3119</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3769,16 +3759,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>40021</v>
+        <v>40333</v>
       </c>
       <c r="C159" s="4">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="D159" s="4">
-        <v>4818</v>
+        <v>4855</v>
       </c>
       <c r="E159" s="4">
-        <v>46622</v>
+        <v>46975</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3786,16 +3776,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>72533</v>
+        <v>73066</v>
       </c>
       <c r="C160" s="4">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D160" s="4">
-        <v>14899</v>
+        <v>15179</v>
       </c>
       <c r="E160" s="4">
-        <v>87922</v>
+        <v>88736</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3803,16 +3793,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2730</v>
+        <v>2737</v>
       </c>
       <c r="C161" s="4">
         <v>68</v>
       </c>
       <c r="D161" s="4">
-        <v>2479</v>
+        <v>2517</v>
       </c>
       <c r="E161" s="4">
-        <v>5277</v>
+        <v>5322</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3820,16 +3810,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>302900</v>
+        <v>305589</v>
       </c>
       <c r="C162" s="4">
-        <v>10650</v>
+        <v>10660</v>
       </c>
       <c r="D162" s="4">
-        <v>82847</v>
+        <v>83838</v>
       </c>
       <c r="E162" s="4">
-        <v>396397</v>
+        <v>400087</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3837,16 +3827,16 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C163" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D163" s="4">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E163" s="4">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3854,16 +3844,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>38061</v>
+        <v>38258</v>
       </c>
       <c r="C164" s="4">
-        <v>1393</v>
+        <v>1401</v>
       </c>
       <c r="D164" s="4">
-        <v>9774</v>
+        <v>9819</v>
       </c>
       <c r="E164" s="4">
-        <v>49228</v>
+        <v>49478</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3871,16 +3861,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2203</v>
+        <v>2209</v>
       </c>
       <c r="C165" s="4">
         <v>22</v>
       </c>
       <c r="D165" s="4">
-        <v>1124</v>
+        <v>1150</v>
       </c>
       <c r="E165" s="4">
-        <v>3349</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3888,16 +3878,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>60546</v>
+        <v>60956</v>
       </c>
       <c r="C166" s="4">
-        <v>7802</v>
+        <v>7898</v>
       </c>
       <c r="D166" s="4">
-        <v>57424</v>
+        <v>58013</v>
       </c>
       <c r="E166" s="4">
-        <v>125772</v>
+        <v>126867</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3905,16 +3895,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>20276</v>
+        <v>20354</v>
       </c>
       <c r="C167" s="4">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="D167" s="4">
-        <v>9230</v>
+        <v>9394</v>
       </c>
       <c r="E167" s="4">
-        <v>30629</v>
+        <v>30874</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3922,16 +3912,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>5767</v>
+        <v>5782</v>
       </c>
       <c r="C168" s="4">
         <v>112</v>
       </c>
       <c r="D168" s="4">
-        <v>1834</v>
+        <v>1852</v>
       </c>
       <c r="E168" s="4">
-        <v>7713</v>
+        <v>7746</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3939,16 +3929,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>6697</v>
+        <v>6749</v>
       </c>
       <c r="C169" s="4">
         <v>66</v>
       </c>
       <c r="D169" s="4">
-        <v>3577</v>
+        <v>3634</v>
       </c>
       <c r="E169" s="4">
-        <v>10340</v>
+        <v>10449</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3956,16 +3946,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>13705</v>
+        <v>13816</v>
       </c>
       <c r="C170" s="4">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D170" s="4">
-        <v>4123</v>
+        <v>4144</v>
       </c>
       <c r="E170" s="4">
-        <v>18878</v>
+        <v>19011</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3973,16 +3963,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>508097</v>
+        <v>512076</v>
       </c>
       <c r="C171" s="4">
-        <v>40595</v>
+        <v>40693</v>
       </c>
       <c r="D171" s="4">
-        <v>92389</v>
+        <v>93225</v>
       </c>
       <c r="E171" s="4">
-        <v>641081</v>
+        <v>645994</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3990,16 +3980,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>8556</v>
+        <v>8560</v>
       </c>
       <c r="C172" s="4">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D172" s="4">
-        <v>2754</v>
+        <v>2763</v>
       </c>
       <c r="E172" s="4">
-        <v>12368</v>
+        <v>12382</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4007,16 +3997,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>7137</v>
+        <v>7189</v>
       </c>
       <c r="C173" s="4">
         <v>739</v>
       </c>
       <c r="D173" s="4">
-        <v>5818</v>
+        <v>5926</v>
       </c>
       <c r="E173" s="4">
-        <v>13694</v>
+        <v>13854</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4030,10 +4020,10 @@
         <v>12</v>
       </c>
       <c r="D174" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E174" s="4">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4041,16 +4031,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>49970</v>
+        <v>50181</v>
       </c>
       <c r="C175" s="4">
-        <v>3510</v>
+        <v>3517</v>
       </c>
       <c r="D175" s="4">
-        <v>13404</v>
+        <v>13545</v>
       </c>
       <c r="E175" s="4">
-        <v>66884</v>
+        <v>67243</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4058,16 +4048,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>33079</v>
+        <v>33161</v>
       </c>
       <c r="C176" s="4">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="D176" s="4">
-        <v>16506</v>
+        <v>16702</v>
       </c>
       <c r="E176" s="4">
-        <v>51344</v>
+        <v>51624</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4075,16 +4065,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>5209</v>
+        <v>5233</v>
       </c>
       <c r="C177" s="4">
         <v>820</v>
       </c>
       <c r="D177" s="4">
-        <v>3412</v>
+        <v>3425</v>
       </c>
       <c r="E177" s="4">
-        <v>9441</v>
+        <v>9478</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4092,16 +4082,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>9340</v>
+        <v>9357</v>
       </c>
       <c r="C178" s="4">
         <v>182</v>
       </c>
       <c r="D178" s="4">
-        <v>4866</v>
+        <v>4886</v>
       </c>
       <c r="E178" s="4">
-        <v>14388</v>
+        <v>14425</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4109,16 +4099,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>280564</v>
+        <v>282669</v>
       </c>
       <c r="C179" s="4">
-        <v>47788</v>
+        <v>47868</v>
       </c>
       <c r="D179" s="4">
-        <v>102009</v>
+        <v>103044</v>
       </c>
       <c r="E179" s="4">
-        <v>430361</v>
+        <v>433581</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4126,16 +4116,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C180" s="4">
         <v>322</v>
       </c>
       <c r="D180" s="4">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="E180" s="4">
-        <v>1790</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4143,16 +4133,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C181" s="4">
         <v>335</v>
       </c>
       <c r="D181" s="4">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E181" s="4">
-        <v>1886</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4160,16 +4150,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>40726</v>
+        <v>41114</v>
       </c>
       <c r="C182" s="4">
-        <v>6232</v>
+        <v>6251</v>
       </c>
       <c r="D182" s="4">
-        <v>18194</v>
+        <v>18298</v>
       </c>
       <c r="E182" s="4">
-        <v>65152</v>
+        <v>65663</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4177,16 +4167,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>17428</v>
+        <v>17732</v>
       </c>
       <c r="C183" s="4">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="D183" s="4">
-        <v>7954</v>
+        <v>8015</v>
       </c>
       <c r="E183" s="4">
-        <v>26376</v>
+        <v>26744</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4194,16 +4184,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>11620</v>
+        <v>11700</v>
       </c>
       <c r="C184" s="4">
         <v>1196</v>
       </c>
       <c r="D184" s="4">
-        <v>5129</v>
+        <v>5173</v>
       </c>
       <c r="E184" s="4">
-        <v>17945</v>
+        <v>18069</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4211,16 +4201,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>93516</v>
+        <v>94240</v>
       </c>
       <c r="C185" s="4">
-        <v>6566</v>
+        <v>6594</v>
       </c>
       <c r="D185" s="4">
-        <v>26163</v>
+        <v>26295</v>
       </c>
       <c r="E185" s="4">
-        <v>126245</v>
+        <v>127129</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4228,16 +4218,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>2470</v>
+        <v>2477</v>
       </c>
       <c r="C186" s="4">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D186" s="4">
-        <v>2077</v>
+        <v>2084</v>
       </c>
       <c r="E186" s="4">
-        <v>4831</v>
+        <v>4847</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4245,16 +4235,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>12532</v>
+        <v>12551</v>
       </c>
       <c r="C187" s="4">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D187" s="4">
-        <v>2156</v>
+        <v>2188</v>
       </c>
       <c r="E187" s="4">
-        <v>14814</v>
+        <v>14867</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4262,16 +4252,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>45971</v>
+        <v>46106</v>
       </c>
       <c r="C188" s="4">
-        <v>2512</v>
+        <v>2517</v>
       </c>
       <c r="D188" s="4">
-        <v>12857</v>
+        <v>13882</v>
       </c>
       <c r="E188" s="4">
-        <v>61340</v>
+        <v>62505</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4279,16 +4269,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>90705</v>
+        <v>90929</v>
       </c>
       <c r="C189" s="4">
-        <v>8281</v>
+        <v>8286</v>
       </c>
       <c r="D189" s="4">
-        <v>25714</v>
+        <v>25915</v>
       </c>
       <c r="E189" s="4">
-        <v>124700</v>
+        <v>125130</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4296,16 +4286,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7599</v>
+        <v>7602</v>
       </c>
       <c r="C190" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D190" s="4">
-        <v>1761</v>
+        <v>1779</v>
       </c>
       <c r="E190" s="4">
-        <v>9414</v>
+        <v>9436</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4313,16 +4303,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>4039</v>
+        <v>4069</v>
       </c>
       <c r="C191" s="4">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D191" s="4">
-        <v>1499</v>
+        <v>1546</v>
       </c>
       <c r="E191" s="4">
-        <v>5978</v>
+        <v>6056</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4330,16 +4320,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>61067</v>
+        <v>61265</v>
       </c>
       <c r="C192" s="4">
-        <v>16851</v>
+        <v>16864</v>
       </c>
       <c r="D192" s="4">
-        <v>23104</v>
+        <v>23187</v>
       </c>
       <c r="E192" s="4">
-        <v>101022</v>
+        <v>101316</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4347,16 +4337,16 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="C193" s="4">
         <v>31</v>
       </c>
       <c r="D193" s="4">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="E193" s="4">
-        <v>1550</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4364,16 +4354,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>2157</v>
+        <v>2167</v>
       </c>
       <c r="C194" s="4">
         <v>78</v>
       </c>
       <c r="D194" s="4">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="E194" s="4">
-        <v>3090</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4381,16 +4371,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>6905</v>
+        <v>6926</v>
       </c>
       <c r="C195" s="4">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D195" s="4">
-        <v>4168</v>
+        <v>4190</v>
       </c>
       <c r="E195" s="4">
-        <v>11687</v>
+        <v>11731</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4398,16 +4388,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>10062</v>
+        <v>10109</v>
       </c>
       <c r="C196" s="4">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D196" s="4">
-        <v>70886</v>
+        <v>70898</v>
       </c>
       <c r="E196" s="4">
-        <v>81301</v>
+        <v>81364</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4415,16 +4405,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>4696</v>
+        <v>4706</v>
       </c>
       <c r="C197" s="4">
         <v>442</v>
       </c>
       <c r="D197" s="4">
-        <v>5182</v>
+        <v>5224</v>
       </c>
       <c r="E197" s="4">
-        <v>10320</v>
+        <v>10372</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4432,7 +4422,7 @@
         <v>201</v>
       </c>
       <c r="B198" s="4">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C198" s="4">
         <v>91</v>
@@ -4441,7 +4431,7 @@
         <v>70</v>
       </c>
       <c r="E198" s="4">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4449,16 +4439,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>14828</v>
+        <v>14995</v>
       </c>
       <c r="C199" s="4">
         <v>425</v>
       </c>
       <c r="D199" s="4">
-        <v>9335</v>
+        <v>9370</v>
       </c>
       <c r="E199" s="4">
-        <v>24588</v>
+        <v>24790</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4466,16 +4456,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>89663</v>
+        <v>90055</v>
       </c>
       <c r="C200" s="4">
-        <v>6268</v>
+        <v>6316</v>
       </c>
       <c r="D200" s="4">
-        <v>10702</v>
+        <v>10824</v>
       </c>
       <c r="E200" s="4">
-        <v>106633</v>
+        <v>107195</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4483,16 +4473,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>6782</v>
+        <v>6818</v>
       </c>
       <c r="C201" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D201" s="4">
-        <v>4661</v>
+        <v>4688</v>
       </c>
       <c r="E201" s="4">
-        <v>11618</v>
+        <v>11682</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4500,16 +4490,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>25680</v>
+        <v>25844</v>
       </c>
       <c r="C202" s="4">
-        <v>2239</v>
+        <v>2243</v>
       </c>
       <c r="D202" s="4">
-        <v>5669</v>
+        <v>5733</v>
       </c>
       <c r="E202" s="4">
-        <v>33588</v>
+        <v>33820</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4517,16 +4507,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>8442</v>
+        <v>8486</v>
       </c>
       <c r="C203" s="4">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D203" s="4">
-        <v>3613</v>
+        <v>3693</v>
       </c>
       <c r="E203" s="4">
-        <v>12702</v>
+        <v>12827</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4534,16 +4524,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>7781</v>
+        <v>7862</v>
       </c>
       <c r="C204" s="4">
         <v>241</v>
       </c>
       <c r="D204" s="4">
-        <v>5499</v>
+        <v>5546</v>
       </c>
       <c r="E204" s="4">
-        <v>13521</v>
+        <v>13649</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4551,16 +4541,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>23692</v>
+        <v>23872</v>
       </c>
       <c r="C205" s="4">
-        <v>2278</v>
+        <v>2282</v>
       </c>
       <c r="D205" s="4">
-        <v>6711</v>
+        <v>6810</v>
       </c>
       <c r="E205" s="4">
-        <v>32681</v>
+        <v>32964</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4568,16 +4558,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>41904</v>
+        <v>42277</v>
       </c>
       <c r="C206" s="4">
-        <v>8841</v>
+        <v>8863</v>
       </c>
       <c r="D206" s="4">
-        <v>29441</v>
+        <v>29763</v>
       </c>
       <c r="E206" s="4">
-        <v>80186</v>
+        <v>80903</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4585,16 +4575,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>3806</v>
+        <v>3811</v>
       </c>
       <c r="C207" s="4">
         <v>95</v>
       </c>
       <c r="D207" s="4">
-        <v>2852</v>
+        <v>2889</v>
       </c>
       <c r="E207" s="4">
-        <v>6753</v>
+        <v>6795</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4602,16 +4592,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C208" s="4">
         <v>16</v>
       </c>
       <c r="D208" s="4">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E208" s="4">
-        <v>1524</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4619,16 +4609,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>20794</v>
+        <v>20989</v>
       </c>
       <c r="C209" s="4">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D209" s="4">
-        <v>1563</v>
+        <v>1596</v>
       </c>
       <c r="E209" s="4">
-        <v>22604</v>
+        <v>22833</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4636,16 +4626,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="C210" s="4">
         <v>81</v>
       </c>
       <c r="D210" s="4">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="E210" s="4">
-        <v>1703</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4653,16 +4643,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>14999</v>
+        <v>15355</v>
       </c>
       <c r="C211" s="4">
-        <v>1140</v>
+        <v>1148</v>
       </c>
       <c r="D211" s="4">
-        <v>5775</v>
+        <v>5804</v>
       </c>
       <c r="E211" s="4">
-        <v>21914</v>
+        <v>22307</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4676,10 +4666,10 @@
         <v>154</v>
       </c>
       <c r="D212" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E212" s="4">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4687,16 +4677,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>219597</v>
+        <v>220684</v>
       </c>
       <c r="C213" s="4">
-        <v>10253</v>
+        <v>10286</v>
       </c>
       <c r="D213" s="4">
-        <v>46926</v>
+        <v>47798</v>
       </c>
       <c r="E213" s="4">
-        <v>276776</v>
+        <v>278768</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4704,16 +4694,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>5775</v>
+        <v>5798</v>
       </c>
       <c r="C214" s="4">
         <v>404</v>
       </c>
       <c r="D214" s="4">
-        <v>5847</v>
+        <v>5939</v>
       </c>
       <c r="E214" s="4">
-        <v>12026</v>
+        <v>12141</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4721,16 +4711,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>61474</v>
+        <v>61838</v>
       </c>
       <c r="C215" s="4">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="D215" s="4">
-        <v>24358</v>
+        <v>24559</v>
       </c>
       <c r="E215" s="4">
-        <v>86544</v>
+        <v>87114</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4738,16 +4728,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>4108</v>
+        <v>4264</v>
       </c>
       <c r="C216" s="4">
         <v>142</v>
       </c>
       <c r="D216" s="4">
-        <v>3195</v>
+        <v>3204</v>
       </c>
       <c r="E216" s="4">
-        <v>7445</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4755,16 +4745,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C217" s="4">
         <v>11</v>
       </c>
       <c r="D217" s="4">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="E217" s="4">
-        <v>1242</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4778,10 +4768,10 @@
         <v>8</v>
       </c>
       <c r="D218" s="4">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="E218" s="4">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4789,16 +4779,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="C219" s="4">
         <v>36</v>
       </c>
       <c r="D219" s="4">
-        <v>978</v>
+        <v>987</v>
       </c>
       <c r="E219" s="4">
-        <v>2406</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4806,7 +4796,7 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>5795</v>
+        <v>5804</v>
       </c>
       <c r="C220" s="4">
         <v>359</v>
@@ -4815,7 +4805,7 @@
         <v>1477</v>
       </c>
       <c r="E220" s="4">
-        <v>7631</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4823,16 +4813,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>2039017</v>
+        <v>2052433</v>
       </c>
       <c r="C221" s="4">
-        <v>99812</v>
+        <v>100069</v>
       </c>
       <c r="D221" s="4">
-        <v>353465</v>
+        <v>355965</v>
       </c>
       <c r="E221" s="4">
-        <v>2492294</v>
+        <v>2508467</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4840,16 +4830,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>96775</v>
+        <v>97007</v>
       </c>
       <c r="C222" s="4">
-        <v>3697</v>
+        <v>3708</v>
       </c>
       <c r="D222" s="4">
-        <v>76105</v>
+        <v>77283</v>
       </c>
       <c r="E222" s="4">
-        <v>176577</v>
+        <v>177998</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4857,16 +4847,16 @@
         <v>226</v>
       </c>
       <c r="B223" s="4">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C223" s="4">
         <v>8</v>
       </c>
       <c r="D223" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E223" s="4">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4874,16 +4864,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>4508</v>
+        <v>4522</v>
       </c>
       <c r="C224" s="4">
         <v>118</v>
       </c>
       <c r="D224" s="4">
-        <v>2565</v>
+        <v>2586</v>
       </c>
       <c r="E224" s="4">
-        <v>7191</v>
+        <v>7226</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4891,16 +4881,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C225" s="4">
         <v>33</v>
       </c>
       <c r="D225" s="4">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E225" s="4">
-        <v>762</v>
+        <v>770</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4908,16 +4898,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>26124</v>
+        <v>26240</v>
       </c>
       <c r="C226" s="4">
         <v>1238</v>
       </c>
       <c r="D226" s="4">
-        <v>6188</v>
+        <v>6198</v>
       </c>
       <c r="E226" s="4">
-        <v>33550</v>
+        <v>33676</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4925,16 +4915,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>83109</v>
+        <v>83486</v>
       </c>
       <c r="C227" s="4">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="D227" s="4">
-        <v>66931</v>
+        <v>67594</v>
       </c>
       <c r="E227" s="4">
-        <v>152082</v>
+        <v>153123</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4942,16 +4932,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>1355601</v>
+        <v>1366884</v>
       </c>
       <c r="C228" s="4">
-        <v>50099</v>
+        <v>50351</v>
       </c>
       <c r="D228" s="4">
-        <v>258900</v>
+        <v>261289</v>
       </c>
       <c r="E228" s="4">
-        <v>1664600</v>
+        <v>1678524</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4959,16 +4949,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>15151</v>
+        <v>15345</v>
       </c>
       <c r="C229" s="4">
         <v>534</v>
       </c>
       <c r="D229" s="4">
-        <v>5137</v>
+        <v>5211</v>
       </c>
       <c r="E229" s="4">
-        <v>20822</v>
+        <v>21090</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4976,16 +4966,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>12683</v>
+        <v>12746</v>
       </c>
       <c r="C230" s="4">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="D230" s="4">
-        <v>7431</v>
+        <v>7678</v>
       </c>
       <c r="E230" s="4">
-        <v>21117</v>
+        <v>21431</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4993,16 +4983,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>13221</v>
+        <v>13295</v>
       </c>
       <c r="C231" s="4">
-        <v>2193</v>
+        <v>2199</v>
       </c>
       <c r="D231" s="4">
-        <v>6105</v>
+        <v>6206</v>
       </c>
       <c r="E231" s="4">
-        <v>21519</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5010,16 +5000,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C232" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D232" s="4">
-        <v>2707</v>
+        <v>2717</v>
       </c>
       <c r="E232" s="4">
-        <v>3734</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5027,16 +5017,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>30678</v>
+        <v>30833</v>
       </c>
       <c r="C233" s="4">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D233" s="4">
-        <v>3090</v>
+        <v>3143</v>
       </c>
       <c r="E233" s="4">
-        <v>34234</v>
+        <v>34444</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5044,16 +5034,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>52478</v>
+        <v>52909</v>
       </c>
       <c r="C234" s="4">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="D234" s="4">
-        <v>21476</v>
+        <v>21637</v>
       </c>
       <c r="E234" s="4">
-        <v>75239</v>
+        <v>75834</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5061,16 +5051,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>24848</v>
+        <v>24958</v>
       </c>
       <c r="C235" s="4">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="D235" s="4">
-        <v>13387</v>
+        <v>13568</v>
       </c>
       <c r="E235" s="4">
-        <v>40247</v>
+        <v>40543</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5078,16 +5068,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>54829</v>
+        <v>55323</v>
       </c>
       <c r="C236" s="4">
-        <v>2498</v>
+        <v>2523</v>
       </c>
       <c r="D236" s="4">
-        <v>23096</v>
+        <v>23237</v>
       </c>
       <c r="E236" s="4">
-        <v>80423</v>
+        <v>81083</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5095,16 +5085,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>135516</v>
+        <v>136666</v>
       </c>
       <c r="C237" s="4">
-        <v>2936</v>
+        <v>2939</v>
       </c>
       <c r="D237" s="4">
-        <v>25415</v>
+        <v>25859</v>
       </c>
       <c r="E237" s="4">
-        <v>163867</v>
+        <v>165464</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5112,16 +5102,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>44064</v>
+        <v>44450</v>
       </c>
       <c r="C238" s="4">
         <v>2103</v>
       </c>
       <c r="D238" s="4">
-        <v>6876</v>
+        <v>6962</v>
       </c>
       <c r="E238" s="4">
-        <v>53043</v>
+        <v>53515</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5129,16 +5119,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>4928</v>
+        <v>4935</v>
       </c>
       <c r="C239" s="4">
         <v>180</v>
       </c>
       <c r="D239" s="4">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="E239" s="4">
-        <v>5987</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5146,16 +5136,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>44350</v>
+        <v>44557</v>
       </c>
       <c r="C240" s="4">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="D240" s="4">
-        <v>15937</v>
+        <v>16284</v>
       </c>
       <c r="E240" s="4">
-        <v>62096</v>
+        <v>62652</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5163,16 +5153,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>430459</v>
+        <v>432226</v>
       </c>
       <c r="C241" s="4">
-        <v>5779</v>
+        <v>5789</v>
       </c>
       <c r="D241" s="4">
-        <v>92206</v>
+        <v>92628</v>
       </c>
       <c r="E241" s="4">
-        <v>528444</v>
+        <v>530643</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5180,16 +5170,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>39306</v>
+        <v>39588</v>
       </c>
       <c r="C242" s="4">
         <v>2255</v>
       </c>
       <c r="D242" s="4">
-        <v>6498</v>
+        <v>6542</v>
       </c>
       <c r="E242" s="4">
-        <v>48059</v>
+        <v>48385</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5197,16 +5187,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1833</v>
+        <v>1840</v>
       </c>
       <c r="C243" s="4">
         <v>436</v>
       </c>
       <c r="D243" s="4">
-        <v>2841</v>
+        <v>2847</v>
       </c>
       <c r="E243" s="4">
-        <v>5110</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5214,16 +5204,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>120437</v>
+        <v>121311</v>
       </c>
       <c r="C244" s="4">
-        <v>7368</v>
+        <v>7370</v>
       </c>
       <c r="D244" s="4">
-        <v>33203</v>
+        <v>33380</v>
       </c>
       <c r="E244" s="4">
-        <v>161008</v>
+        <v>162061</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5231,16 +5221,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>14135</v>
+        <v>14189</v>
       </c>
       <c r="C245" s="4">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D245" s="4">
-        <v>6474</v>
+        <v>6478</v>
       </c>
       <c r="E245" s="4">
-        <v>21272</v>
+        <v>21331</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5248,16 +5238,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>36712</v>
+        <v>36812</v>
       </c>
       <c r="C246" s="4">
         <v>199</v>
       </c>
       <c r="D246" s="4">
-        <v>5348</v>
+        <v>5387</v>
       </c>
       <c r="E246" s="4">
-        <v>42259</v>
+        <v>42398</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5265,16 +5255,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>579476</v>
+        <v>583677</v>
       </c>
       <c r="C247" s="4">
-        <v>19138</v>
+        <v>19303</v>
       </c>
       <c r="D247" s="4">
-        <v>123645</v>
+        <v>124776</v>
       </c>
       <c r="E247" s="4">
-        <v>722259</v>
+        <v>727756</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5282,16 +5272,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>41787</v>
+        <v>42055</v>
       </c>
       <c r="C248" s="4">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="D248" s="4">
-        <v>10710</v>
+        <v>10740</v>
       </c>
       <c r="E248" s="4">
-        <v>53767</v>
+        <v>54068</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5299,16 +5289,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="C249" s="4">
         <v>55</v>
       </c>
       <c r="D249" s="4">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E249" s="4">
-        <v>1625</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5316,16 +5306,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>56846</v>
+        <v>57127</v>
       </c>
       <c r="C250" s="4">
-        <v>3502</v>
+        <v>3506</v>
       </c>
       <c r="D250" s="4">
-        <v>9782</v>
+        <v>9835</v>
       </c>
       <c r="E250" s="4">
-        <v>70130</v>
+        <v>70468</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5333,16 +5323,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>21842</v>
+        <v>21993</v>
       </c>
       <c r="C251" s="4">
-        <v>1993</v>
+        <v>2002</v>
       </c>
       <c r="D251" s="4">
-        <v>8464</v>
+        <v>8665</v>
       </c>
       <c r="E251" s="4">
-        <v>32299</v>
+        <v>32660</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5350,16 +5340,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2532</v>
+        <v>2538</v>
       </c>
       <c r="C252" s="4">
         <v>130</v>
       </c>
       <c r="D252" s="4">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="E252" s="4">
-        <v>3800</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5367,16 +5357,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>8415</v>
+        <v>8470</v>
       </c>
       <c r="C253" s="4">
         <v>586</v>
       </c>
       <c r="D253" s="4">
-        <v>3488</v>
+        <v>3541</v>
       </c>
       <c r="E253" s="4">
-        <v>12489</v>
+        <v>12597</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5384,16 +5374,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>17329</v>
+        <v>17345</v>
       </c>
       <c r="C254" s="4">
         <v>136</v>
       </c>
       <c r="D254" s="4">
-        <v>10858</v>
+        <v>11143</v>
       </c>
       <c r="E254" s="4">
-        <v>28323</v>
+        <v>28624</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5401,16 +5391,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>10990</v>
+        <v>11024</v>
       </c>
       <c r="C255" s="4">
         <v>258</v>
       </c>
       <c r="D255" s="4">
-        <v>1689</v>
+        <v>1709</v>
       </c>
       <c r="E255" s="4">
-        <v>12937</v>
+        <v>12991</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5418,33 +5408,33 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>159713</v>
+        <v>160054</v>
       </c>
       <c r="C256" s="4">
-        <v>13354</v>
+        <v>13359</v>
       </c>
       <c r="D256" s="4">
-        <v>12888</v>
+        <v>12937</v>
       </c>
       <c r="E256" s="4">
-        <v>185955</v>
+        <v>186350</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="5" t="s">
+      <c r="A257" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>29474737</v>
+        <v>29670617</v>
       </c>
       <c r="C257" s="4">
-        <v>1440471</v>
+        <v>1444430</v>
       </c>
       <c r="D257" s="4">
-        <v>6279512</v>
+        <v>6330743</v>
       </c>
       <c r="E257" s="4">
-        <v>37194720</v>
+        <v>37445790</v>
       </c>
     </row>
   </sheetData>
